--- a/biology/Zoologie/Bufotes_turanensis/Bufotes_turanensis.xlsx
+++ b/biology/Zoologie/Bufotes_turanensis/Bufotes_turanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufotes turanensis est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufotes turanensis est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 dans le nord de l'Iran dans le Kopet-Dag et dans l'est de l'Elbourz ;
 dans le Sud du Turkménistan dans le Kopet-Dag ;
 au Tadjikistan.
@@ -546,7 +560,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de turan et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Turan ou Touran étant le nom donné par les peuples iraniens pour désigner le Nord et par extension les peuples nomades des steppes.
 </t>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hemmer, Schmidtler &amp; Böhme, 1978 : Zur Systematik zentralasiatischer Grünkröten (Bufo viridis-Komplex) (Amphibia, Salientia, Bufonidae). Zoologische Abhandlungen, Staatliches Museum für Tierkunde in Dresden, vol. 34, p. 349-384.</t>
         </is>
